--- a/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - (08% Discount).xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - (08% Discount).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B29FAB-A818-4F68-B095-5860F74B611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC72D0-FBCB-4035-B173-BB2C9F690647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand Summary" sheetId="65" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <definedName name="PR858F">'[6]Normal Basis'!$58:$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ACMV BOQ'!$A$1:$M$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Fire BOQ'!$A$1:$M$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Grand Summary'!$A$1:$D$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Grand Summary'!$A$1:$D$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Plumbing BOQ'!$A$1:$M$85</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">#REF!</definedName>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="318">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1432,6 +1432,12 @@
   </si>
   <si>
     <t xml:space="preserve">SCON </t>
+  </si>
+  <si>
+    <t>ADD 5% Tax</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
   </si>
 </sst>
 </file>
@@ -4347,6 +4353,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="38" fillId="0" borderId="75" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4368,9 +4389,36 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4383,18 +4431,6 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4404,29 +4440,74 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4434,65 +4515,11 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="82" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4512,29 +4539,8 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="38" fillId="0" borderId="75" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -23936,10 +23942,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -23960,20 +23966,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="543" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
+      <c r="B3" s="543"/>
+      <c r="C3" s="543"/>
+      <c r="D3" s="543"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="539" t="s">
+      <c r="A4" s="544" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="539"/>
-      <c r="C4" s="539"/>
-      <c r="D4" s="539"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
       <c r="E4" s="288"/>
       <c r="F4" s="288"/>
       <c r="G4" s="288"/>
@@ -23990,12 +23996,12 @@
       <c r="G5" s="288"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="540" t="s">
+      <c r="A6" s="545" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="540"/>
-      <c r="C6" s="540"/>
-      <c r="D6" s="540"/>
+      <c r="B6" s="545"/>
+      <c r="C6" s="545"/>
+      <c r="D6" s="545"/>
       <c r="E6" s="289"/>
       <c r="F6" s="289"/>
       <c r="G6" s="289"/>
@@ -24009,12 +24015,12 @@
       <c r="G7" s="290"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="539" t="s">
+      <c r="A8" s="544" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="539"/>
-      <c r="C8" s="539"/>
-      <c r="D8" s="539"/>
+      <c r="B8" s="544"/>
+      <c r="C8" s="544"/>
+      <c r="D8" s="544"/>
       <c r="E8" s="288"/>
       <c r="F8" s="288"/>
       <c r="G8" s="288"/>
@@ -24139,84 +24145,110 @@
       <c r="G17" s="309"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="310" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="309"/>
+      <c r="B18" s="294"/>
+      <c r="C18" s="303" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="304">
+        <f>D16*5%</f>
+        <v>2173245.1829999997</v>
+      </c>
+      <c r="E18" s="308"/>
       <c r="F18" s="309"/>
       <c r="G18" s="309"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="306" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="541" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="541"/>
-      <c r="D19" s="541"/>
-      <c r="E19" s="309"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="294"/>
+      <c r="C19" s="303" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="304">
+        <f>D18+D16</f>
+        <v>45638148.842999995</v>
+      </c>
+      <c r="E19" s="308"/>
       <c r="F19" s="309"/>
       <c r="G19" s="309"/>
     </row>
-    <row r="20" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="306" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="310" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="306" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="546" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="546"/>
+      <c r="D21" s="546"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
+      <c r="G21" s="309"/>
+    </row>
+    <row r="22" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="541" t="s">
+      <c r="B22" s="546" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="541"/>
-      <c r="D20" s="541"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="311"/>
+      <c r="C22" s="546"/>
+      <c r="D22" s="546"/>
+      <c r="E22" s="312"/>
+      <c r="F22" s="311"/>
+      <c r="G22" s="311"/>
     </row>
-    <row r="21" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="306" t="s">
+    <row r="23" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="306" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="537" t="s">
+      <c r="B23" s="542" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="537"/>
-      <c r="D21" s="537"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="311"/>
-      <c r="G21" s="311"/>
+      <c r="C23" s="542"/>
+      <c r="D23" s="542"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="311"/>
+      <c r="G23" s="311"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="287" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="536" t="s">
+      <c r="B24" s="541" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="536"/>
-      <c r="D22" s="536"/>
+      <c r="C24" s="541"/>
+      <c r="D24" s="541"/>
     </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="287" t="s">
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="287" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="535" t="s">
+      <c r="B25" s="540" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="535"/>
-      <c r="D23" s="535"/>
+      <c r="C25" s="540"/>
+      <c r="D25" s="540"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.28000000000000003" right="0.25" top="0.34" bottom="0.52" header="0.3" footer="0.3"/>
@@ -24365,29 +24397,29 @@
       <c r="D7" s="9"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
-      <c r="G7" s="544" t="s">
+      <c r="G7" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="545"/>
-      <c r="I7" s="546" t="s">
+      <c r="H7" s="559"/>
+      <c r="I7" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="546"/>
+      <c r="J7" s="560"/>
       <c r="K7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="547" t="s">
+      <c r="L7" s="550" t="s">
         <v>218</v>
       </c>
-      <c r="M7" s="547" t="s">
+      <c r="M7" s="550" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="558"/>
+      <c r="A8" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="553"/>
       <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
@@ -24415,8 +24447,8 @@
       <c r="K8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="548"/>
-      <c r="M8" s="548"/>
+      <c r="L8" s="551"/>
+      <c r="M8" s="551"/>
     </row>
     <row r="9" spans="1:19" s="10" customFormat="1" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
@@ -24786,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="257">
-        <f t="shared" ref="H17:H80" si="5">G17*E17</f>
+        <f t="shared" ref="H17:H79" si="5">G17*E17</f>
         <v>0</v>
       </c>
       <c r="I17" s="29">
@@ -24896,10 +24928,10 @@
         <f>J19+H19</f>
         <v>454273.92</v>
       </c>
-      <c r="L19" s="549" t="s">
+      <c r="L19" s="555" t="s">
         <v>249</v>
       </c>
-      <c r="M19" s="549" t="s">
+      <c r="M19" s="555" t="s">
         <v>265</v>
       </c>
       <c r="N19" s="7">
@@ -24958,8 +24990,8 @@
         <f>J20+H20</f>
         <v>2271369.6</v>
       </c>
-      <c r="L20" s="549"/>
-      <c r="M20" s="549"/>
+      <c r="L20" s="555"/>
+      <c r="M20" s="555"/>
       <c r="N20" s="7">
         <v>238888</v>
       </c>
@@ -25016,8 +25048,8 @@
         <f>J21+H21</f>
         <v>454273.92</v>
       </c>
-      <c r="L21" s="549"/>
-      <c r="M21" s="549"/>
+      <c r="L21" s="555"/>
+      <c r="M21" s="555"/>
       <c r="N21" s="7">
         <v>238888</v>
       </c>
@@ -25074,8 +25106,8 @@
         <f>J22+H22</f>
         <v>459549.2</v>
       </c>
-      <c r="L22" s="549"/>
-      <c r="M22" s="549"/>
+      <c r="L22" s="555"/>
+      <c r="M22" s="555"/>
       <c r="N22" s="7">
         <v>241755</v>
       </c>
@@ -25132,8 +25164,8 @@
         <f>J23+H23</f>
         <v>459549.2</v>
       </c>
-      <c r="L23" s="549"/>
-      <c r="M23" s="549"/>
+      <c r="L23" s="555"/>
+      <c r="M23" s="555"/>
       <c r="N23" s="7">
         <v>241755</v>
       </c>
@@ -25180,8 +25212,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="135"/>
-      <c r="L24" s="549"/>
-      <c r="M24" s="549"/>
+      <c r="L24" s="555"/>
+      <c r="M24" s="555"/>
       <c r="P24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25232,8 +25264,8 @@
         <f>J25+H25</f>
         <v>159160</v>
       </c>
-      <c r="L25" s="549"/>
-      <c r="M25" s="549"/>
+      <c r="L25" s="555"/>
+      <c r="M25" s="555"/>
       <c r="N25" s="4">
         <v>165000</v>
       </c>
@@ -25290,8 +25322,8 @@
         <f>J26+H26</f>
         <v>954960</v>
       </c>
-      <c r="L26" s="549"/>
-      <c r="M26" s="549"/>
+      <c r="L26" s="555"/>
+      <c r="M26" s="555"/>
       <c r="N26" s="4">
         <v>165000</v>
       </c>
@@ -25348,8 +25380,8 @@
         <f>J27+H27</f>
         <v>1591600</v>
       </c>
-      <c r="L27" s="549"/>
-      <c r="M27" s="549"/>
+      <c r="L27" s="555"/>
+      <c r="M27" s="555"/>
       <c r="N27" s="4">
         <v>165000</v>
       </c>
@@ -25406,8 +25438,8 @@
         <f>J28+H28</f>
         <v>1114120</v>
       </c>
-      <c r="L28" s="550"/>
-      <c r="M28" s="550"/>
+      <c r="L28" s="556"/>
+      <c r="M28" s="556"/>
       <c r="N28" s="4">
         <v>165000</v>
       </c>
@@ -25503,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="549" t="s">
+      <c r="L30" s="555" t="s">
         <v>250</v>
       </c>
-      <c r="M30" s="549" t="s">
+      <c r="M30" s="555" t="s">
         <v>253</v>
       </c>
       <c r="P30" s="7">
@@ -25553,8 +25585,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="549"/>
-      <c r="M31" s="549"/>
+      <c r="L31" s="555"/>
+      <c r="M31" s="555"/>
       <c r="P31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25607,8 +25639,8 @@
         <f>J32+H32</f>
         <v>102120</v>
       </c>
-      <c r="L32" s="549"/>
-      <c r="M32" s="549"/>
+      <c r="L32" s="555"/>
+      <c r="M32" s="555"/>
       <c r="N32" s="4">
         <v>8250</v>
       </c>
@@ -25659,8 +25691,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="549"/>
-      <c r="M33" s="549"/>
+      <c r="L33" s="555"/>
+      <c r="M33" s="555"/>
       <c r="P33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25714,8 +25746,8 @@
         <f>J34+H34</f>
         <v>25530</v>
       </c>
-      <c r="L34" s="549"/>
-      <c r="M34" s="549"/>
+      <c r="L34" s="555"/>
+      <c r="M34" s="555"/>
       <c r="N34" s="4">
         <v>8250</v>
       </c>
@@ -25766,8 +25798,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="30"/>
-      <c r="L35" s="549"/>
-      <c r="M35" s="549"/>
+      <c r="L35" s="555"/>
+      <c r="M35" s="555"/>
       <c r="P35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25821,8 +25853,8 @@
         <f>J36+H36</f>
         <v>56580</v>
       </c>
-      <c r="L36" s="550"/>
-      <c r="M36" s="550"/>
+      <c r="L36" s="556"/>
+      <c r="M36" s="556"/>
       <c r="N36" s="4">
         <v>19500</v>
       </c>
@@ -26495,10 +26527,10 @@
         <f>J48+H48</f>
         <v>34040</v>
       </c>
-      <c r="L48" s="549" t="s">
+      <c r="L48" s="555" t="s">
         <v>250</v>
       </c>
-      <c r="M48" s="549" t="s">
+      <c r="M48" s="555" t="s">
         <v>253</v>
       </c>
       <c r="N48" s="7">
@@ -26559,8 +26591,8 @@
         <f>J49+H49</f>
         <v>92000</v>
       </c>
-      <c r="L49" s="549"/>
-      <c r="M49" s="549"/>
+      <c r="L49" s="555"/>
+      <c r="M49" s="555"/>
       <c r="N49" s="7">
         <v>11500</v>
       </c>
@@ -26611,8 +26643,8 @@
         <v>0</v>
       </c>
       <c r="K50" s="135"/>
-      <c r="L50" s="549"/>
-      <c r="M50" s="549"/>
+      <c r="L50" s="555"/>
+      <c r="M50" s="555"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26666,8 +26698,8 @@
         <f>J51+H51</f>
         <v>7820</v>
       </c>
-      <c r="L51" s="549"/>
-      <c r="M51" s="549"/>
+      <c r="L51" s="555"/>
+      <c r="M51" s="555"/>
       <c r="N51" s="7">
         <v>7500</v>
       </c>
@@ -26727,8 +26759,8 @@
         <f>J52+H52</f>
         <v>19872</v>
       </c>
-      <c r="L52" s="549"/>
-      <c r="M52" s="549"/>
+      <c r="L52" s="555"/>
+      <c r="M52" s="555"/>
       <c r="N52" s="7">
         <v>9800</v>
       </c>
@@ -26779,8 +26811,8 @@
         <v>0</v>
       </c>
       <c r="K53" s="32"/>
-      <c r="L53" s="549"/>
-      <c r="M53" s="549"/>
+      <c r="L53" s="555"/>
+      <c r="M53" s="555"/>
       <c r="P53" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26834,8 +26866,8 @@
         <f>J54+H54</f>
         <v>17940</v>
       </c>
-      <c r="L54" s="549"/>
-      <c r="M54" s="549"/>
+      <c r="L54" s="555"/>
+      <c r="M54" s="555"/>
       <c r="N54" s="7">
         <v>18000</v>
       </c>
@@ -26895,8 +26927,8 @@
         <f>J55+H55</f>
         <v>42320</v>
       </c>
-      <c r="L55" s="550"/>
-      <c r="M55" s="550"/>
+      <c r="L55" s="556"/>
+      <c r="M55" s="556"/>
       <c r="N55" s="7">
         <v>21500</v>
       </c>
@@ -28367,10 +28399,10 @@
         <f>J81+H81</f>
         <v>347760</v>
       </c>
-      <c r="L81" s="551" t="s">
+      <c r="L81" s="561" t="s">
         <v>251</v>
       </c>
-      <c r="M81" s="554" t="s">
+      <c r="M81" s="547" t="s">
         <v>260</v>
       </c>
       <c r="N81" s="7">
@@ -28423,8 +28455,8 @@
         <v>0</v>
       </c>
       <c r="K82" s="527"/>
-      <c r="L82" s="552"/>
-      <c r="M82" s="555"/>
+      <c r="L82" s="562"/>
+      <c r="M82" s="548"/>
       <c r="P82" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28475,8 +28507,8 @@
         <f t="shared" ref="K83:K88" si="12">J83+H83</f>
         <v>23920</v>
       </c>
-      <c r="L83" s="552"/>
-      <c r="M83" s="555"/>
+      <c r="L83" s="562"/>
+      <c r="M83" s="548"/>
       <c r="N83" s="7">
         <v>5500</v>
       </c>
@@ -28533,8 +28565,8 @@
         <f t="shared" si="12"/>
         <v>48300</v>
       </c>
-      <c r="L84" s="552"/>
-      <c r="M84" s="555"/>
+      <c r="L84" s="562"/>
+      <c r="M84" s="548"/>
       <c r="N84" s="7">
         <v>6500</v>
       </c>
@@ -28591,8 +28623,8 @@
         <f t="shared" si="12"/>
         <v>121440</v>
       </c>
-      <c r="L85" s="552"/>
-      <c r="M85" s="555"/>
+      <c r="L85" s="562"/>
+      <c r="M85" s="548"/>
       <c r="N85" s="7">
         <v>7250</v>
       </c>
@@ -28650,8 +28682,8 @@
         <f t="shared" si="12"/>
         <v>187680</v>
       </c>
-      <c r="L86" s="552"/>
-      <c r="M86" s="555"/>
+      <c r="L86" s="562"/>
+      <c r="M86" s="548"/>
       <c r="N86" s="7">
         <v>32000</v>
       </c>
@@ -28709,8 +28741,8 @@
         <f t="shared" si="12"/>
         <v>15640</v>
       </c>
-      <c r="L87" s="552"/>
-      <c r="M87" s="555"/>
+      <c r="L87" s="562"/>
+      <c r="M87" s="548"/>
       <c r="N87" s="7">
         <v>15000</v>
       </c>
@@ -28768,8 +28800,8 @@
         <f t="shared" si="12"/>
         <v>1840</v>
       </c>
-      <c r="L88" s="552"/>
-      <c r="M88" s="555"/>
+      <c r="L88" s="562"/>
+      <c r="M88" s="548"/>
       <c r="N88" s="7">
         <v>1500</v>
       </c>
@@ -28820,8 +28852,8 @@
         <v>0</v>
       </c>
       <c r="K89" s="527"/>
-      <c r="L89" s="552"/>
-      <c r="M89" s="555"/>
+      <c r="L89" s="562"/>
+      <c r="M89" s="548"/>
       <c r="P89" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28872,8 +28904,8 @@
         <f>J90+H90</f>
         <v>186300</v>
       </c>
-      <c r="L90" s="552"/>
-      <c r="M90" s="555"/>
+      <c r="L90" s="562"/>
+      <c r="M90" s="548"/>
       <c r="N90" s="7">
         <v>4000</v>
       </c>
@@ -28930,8 +28962,8 @@
         <f>J91+H91</f>
         <v>72450</v>
       </c>
-      <c r="L91" s="552"/>
-      <c r="M91" s="555"/>
+      <c r="L91" s="562"/>
+      <c r="M91" s="548"/>
       <c r="N91" s="7">
         <v>4750</v>
       </c>
@@ -28982,8 +29014,8 @@
         <v>0</v>
       </c>
       <c r="K92" s="527"/>
-      <c r="L92" s="552"/>
-      <c r="M92" s="555"/>
+      <c r="L92" s="562"/>
+      <c r="M92" s="548"/>
       <c r="P92" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -29034,8 +29066,8 @@
         <f>J93+H93</f>
         <v>69000</v>
       </c>
-      <c r="L93" s="553"/>
-      <c r="M93" s="556"/>
+      <c r="L93" s="563"/>
+      <c r="M93" s="549"/>
       <c r="N93" s="7">
         <v>3000</v>
       </c>
@@ -30549,51 +30581,51 @@
       <c r="M120" s="37"/>
     </row>
     <row r="121" spans="1:19" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="542" t="s">
+      <c r="A121" s="554" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="542"/>
-      <c r="C121" s="542"/>
-      <c r="D121" s="542"/>
-      <c r="E121" s="542"/>
-      <c r="F121" s="542"/>
-      <c r="G121" s="542"/>
-      <c r="H121" s="542"/>
-      <c r="I121" s="542"/>
-      <c r="J121" s="542"/>
-      <c r="K121" s="542"/>
+      <c r="B121" s="554"/>
+      <c r="C121" s="554"/>
+      <c r="D121" s="554"/>
+      <c r="E121" s="554"/>
+      <c r="F121" s="554"/>
+      <c r="G121" s="554"/>
+      <c r="H121" s="554"/>
+      <c r="I121" s="554"/>
+      <c r="J121" s="554"/>
+      <c r="K121" s="554"/>
       <c r="L121" s="507"/>
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="1:19" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="542" t="s">
+      <c r="A122" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="542"/>
-      <c r="C122" s="542"/>
-      <c r="D122" s="542"/>
-      <c r="E122" s="542"/>
-      <c r="F122" s="542"/>
-      <c r="G122" s="542"/>
-      <c r="H122" s="542"/>
-      <c r="I122" s="542"/>
-      <c r="J122" s="542"/>
-      <c r="K122" s="542"/>
+      <c r="B122" s="554"/>
+      <c r="C122" s="554"/>
+      <c r="D122" s="554"/>
+      <c r="E122" s="554"/>
+      <c r="F122" s="554"/>
+      <c r="G122" s="554"/>
+      <c r="H122" s="554"/>
+      <c r="I122" s="554"/>
+      <c r="J122" s="554"/>
+      <c r="K122" s="554"/>
       <c r="L122" s="508"/>
       <c r="M122" s="23"/>
     </row>
     <row r="123" spans="1:19" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="543"/>
-      <c r="B123" s="543"/>
-      <c r="C123" s="543"/>
-      <c r="D123" s="543"/>
-      <c r="E123" s="543"/>
-      <c r="F123" s="543"/>
-      <c r="G123" s="543"/>
-      <c r="H123" s="543"/>
-      <c r="I123" s="543"/>
-      <c r="J123" s="543"/>
-      <c r="K123" s="543"/>
+      <c r="A123" s="557"/>
+      <c r="B123" s="557"/>
+      <c r="C123" s="557"/>
+      <c r="D123" s="557"/>
+      <c r="E123" s="557"/>
+      <c r="F123" s="557"/>
+      <c r="G123" s="557"/>
+      <c r="H123" s="557"/>
+      <c r="I123" s="557"/>
+      <c r="J123" s="557"/>
+      <c r="K123" s="557"/>
       <c r="L123" s="508"/>
       <c r="M123" s="23"/>
     </row>
@@ -31679,13 +31711,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M81:M93"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M48:M55"/>
     <mergeCell ref="A122:K122"/>
     <mergeCell ref="A123:K123"/>
     <mergeCell ref="G7:H7"/>
@@ -31695,6 +31720,13 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="L48:L55"/>
     <mergeCell ref="L81:L93"/>
+    <mergeCell ref="M81:M93"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="M19:M28"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M48:M55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.32" footer="0.25"/>
@@ -32301,11 +32333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="579" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="572"/>
-      <c r="C1" s="572"/>
+      <c r="B1" s="579"/>
+      <c r="C1" s="579"/>
       <c r="D1" s="147"/>
       <c r="E1" s="147"/>
       <c r="F1" s="147"/>
@@ -32318,11 +32350,11 @@
       <c r="M1" s="149"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="573" t="s">
+      <c r="A2" s="580" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="573"/>
-      <c r="C2" s="573"/>
+      <c r="B2" s="580"/>
+      <c r="C2" s="580"/>
       <c r="D2" s="147"/>
       <c r="E2" s="147"/>
       <c r="F2" s="147"/>
@@ -32392,47 +32424,47 @@
       <c r="M6" s="149"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="574" t="s">
+      <c r="A7" s="581" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="575"/>
-      <c r="C7" s="564" t="s">
+      <c r="B7" s="582"/>
+      <c r="C7" s="585" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="564" t="s">
+      <c r="D7" s="585" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="566" t="s">
+      <c r="E7" s="574" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="566" t="s">
+      <c r="F7" s="574" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="559" t="s">
+      <c r="G7" s="576" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="559"/>
-      <c r="I7" s="559" t="s">
+      <c r="H7" s="576"/>
+      <c r="I7" s="576" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="559"/>
+      <c r="J7" s="576"/>
       <c r="K7" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="560" t="s">
+      <c r="L7" s="570" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="560" t="s">
+      <c r="M7" s="570" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="576"/>
-      <c r="B8" s="577"/>
-      <c r="C8" s="565"/>
-      <c r="D8" s="565"/>
-      <c r="E8" s="567"/>
-      <c r="F8" s="567"/>
+      <c r="A8" s="583"/>
+      <c r="B8" s="584"/>
+      <c r="C8" s="586"/>
+      <c r="D8" s="586"/>
+      <c r="E8" s="575"/>
+      <c r="F8" s="575"/>
       <c r="G8" s="156" t="s">
         <v>110</v>
       </c>
@@ -32448,12 +32480,12 @@
       <c r="K8" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="561"/>
-      <c r="M8" s="561"/>
+      <c r="L8" s="571"/>
+      <c r="M8" s="571"/>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="570"/>
-      <c r="B9" s="571"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
       <c r="C9" s="159" t="s">
         <v>113</v>
       </c>
@@ -34007,10 +34039,10 @@
         <f t="shared" ref="K40:K43" si="12">J40+H40</f>
         <v>32200</v>
       </c>
-      <c r="L40" s="562" t="s">
+      <c r="L40" s="587" t="s">
         <v>273</v>
       </c>
-      <c r="M40" s="578" t="s">
+      <c r="M40" s="564" t="s">
         <v>250</v>
       </c>
       <c r="N40" s="4">
@@ -34069,8 +34101,8 @@
         <f t="shared" si="12"/>
         <v>18400</v>
       </c>
-      <c r="L41" s="562"/>
-      <c r="M41" s="578"/>
+      <c r="L41" s="587"/>
+      <c r="M41" s="564"/>
       <c r="N41" s="4">
         <v>1600</v>
       </c>
@@ -34127,8 +34159,8 @@
         <f t="shared" si="12"/>
         <v>16780.8</v>
       </c>
-      <c r="L42" s="562"/>
-      <c r="M42" s="578"/>
+      <c r="L42" s="587"/>
+      <c r="M42" s="564"/>
       <c r="N42" s="4">
         <v>1780</v>
       </c>
@@ -34185,8 +34217,8 @@
         <f t="shared" si="12"/>
         <v>9384</v>
       </c>
-      <c r="L43" s="562"/>
-      <c r="M43" s="578"/>
+      <c r="L43" s="587"/>
+      <c r="M43" s="564"/>
       <c r="N43" s="4">
         <v>1950</v>
       </c>
@@ -34231,8 +34263,8 @@
       </c>
       <c r="J44" s="463"/>
       <c r="K44" s="466"/>
-      <c r="L44" s="562"/>
-      <c r="M44" s="578"/>
+      <c r="L44" s="587"/>
+      <c r="M44" s="564"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34283,8 +34315,8 @@
         <f t="shared" ref="K45:K48" si="15">J45+H45</f>
         <v>135700</v>
       </c>
-      <c r="L45" s="562"/>
-      <c r="M45" s="578"/>
+      <c r="L45" s="587"/>
+      <c r="M45" s="564"/>
       <c r="N45" s="4">
         <v>2550</v>
       </c>
@@ -34341,8 +34373,8 @@
         <f t="shared" si="15"/>
         <v>102120</v>
       </c>
-      <c r="L46" s="562"/>
-      <c r="M46" s="578"/>
+      <c r="L46" s="587"/>
+      <c r="M46" s="564"/>
       <c r="N46" s="4">
         <v>3200</v>
       </c>
@@ -34399,8 +34431,8 @@
         <f t="shared" si="15"/>
         <v>33856</v>
       </c>
-      <c r="L47" s="562"/>
-      <c r="M47" s="578"/>
+      <c r="L47" s="587"/>
+      <c r="M47" s="564"/>
       <c r="N47" s="4">
         <v>4000</v>
       </c>
@@ -34457,8 +34489,8 @@
         <f t="shared" si="15"/>
         <v>10488</v>
       </c>
-      <c r="L48" s="563"/>
-      <c r="M48" s="579"/>
+      <c r="L48" s="588"/>
+      <c r="M48" s="565"/>
       <c r="N48" s="4">
         <v>5000</v>
       </c>
@@ -34555,7 +34587,7 @@
         <f>J50+H50</f>
         <v>27600</v>
       </c>
-      <c r="L50" s="580" t="s">
+      <c r="L50" s="566" t="s">
         <v>270</v>
       </c>
       <c r="M50" s="235"/>
@@ -34615,7 +34647,7 @@
         <f t="shared" ref="K51:K53" si="18">J51+H51</f>
         <v>20424</v>
       </c>
-      <c r="L51" s="580"/>
+      <c r="L51" s="566"/>
       <c r="M51" s="235"/>
       <c r="N51" s="4">
         <v>680</v>
@@ -34673,7 +34705,7 @@
         <f t="shared" si="18"/>
         <v>6219.2</v>
       </c>
-      <c r="L52" s="580"/>
+      <c r="L52" s="566"/>
       <c r="M52" s="235"/>
       <c r="N52" s="4">
         <v>775</v>
@@ -34731,7 +34763,7 @@
         <f t="shared" si="18"/>
         <v>3275.2</v>
       </c>
-      <c r="L53" s="581"/>
+      <c r="L53" s="567"/>
       <c r="M53" s="235"/>
       <c r="N53" s="4">
         <v>1700</v>
@@ -35241,10 +35273,10 @@
         <f t="shared" ref="K64:K66" si="21">J64+H64</f>
         <v>18400</v>
       </c>
-      <c r="L64" s="578" t="s">
+      <c r="L64" s="564" t="s">
         <v>261</v>
       </c>
-      <c r="M64" s="582"/>
+      <c r="M64" s="568"/>
       <c r="N64" s="4">
         <v>1500</v>
       </c>
@@ -35301,8 +35333,8 @@
         <f t="shared" si="21"/>
         <v>48300</v>
       </c>
-      <c r="L65" s="578"/>
-      <c r="M65" s="582"/>
+      <c r="L65" s="564"/>
+      <c r="M65" s="568"/>
       <c r="N65" s="4">
         <v>4250</v>
       </c>
@@ -35359,8 +35391,8 @@
         <f t="shared" si="21"/>
         <v>63480</v>
       </c>
-      <c r="L66" s="579"/>
-      <c r="M66" s="583"/>
+      <c r="L66" s="565"/>
+      <c r="M66" s="569"/>
       <c r="N66" s="4">
         <v>5900</v>
       </c>
@@ -36191,8 +36223,8 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="568"/>
-      <c r="B83" s="569"/>
+      <c r="A83" s="572"/>
+      <c r="B83" s="573"/>
       <c r="C83" s="365" t="s">
         <v>130</v>
       </c>
@@ -36244,11 +36276,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M40:M48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L40:L48"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
@@ -36257,11 +36289,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L40:L48"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M40:M48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.23"/>
@@ -37089,56 +37121,56 @@
       <c r="D6" s="276"/>
       <c r="E6" s="275"/>
       <c r="F6" s="275"/>
-      <c r="G6" s="584"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="584"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="591"/>
       <c r="L6" s="23"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="574" t="s">
+      <c r="A7" s="581" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="575"/>
-      <c r="C7" s="564" t="s">
+      <c r="B7" s="582"/>
+      <c r="C7" s="585" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="564" t="s">
+      <c r="D7" s="585" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="585" t="s">
+      <c r="E7" s="592" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="585" t="s">
+      <c r="F7" s="592" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="587" t="s">
+      <c r="G7" s="594" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="588"/>
-      <c r="I7" s="587" t="s">
+      <c r="H7" s="595"/>
+      <c r="I7" s="594" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="589"/>
+      <c r="J7" s="596"/>
       <c r="K7" s="274" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="560" t="s">
+      <c r="L7" s="570" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="560" t="s">
+      <c r="M7" s="570" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="272" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="576"/>
-      <c r="B8" s="577"/>
-      <c r="C8" s="565"/>
-      <c r="D8" s="565"/>
-      <c r="E8" s="586"/>
-      <c r="F8" s="586"/>
+      <c r="A8" s="583"/>
+      <c r="B8" s="584"/>
+      <c r="C8" s="586"/>
+      <c r="D8" s="586"/>
+      <c r="E8" s="593"/>
+      <c r="F8" s="593"/>
       <c r="G8" s="157" t="s">
         <v>110</v>
       </c>
@@ -37154,12 +37186,12 @@
       <c r="K8" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="561"/>
-      <c r="M8" s="561"/>
+      <c r="L8" s="571"/>
+      <c r="M8" s="571"/>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="590"/>
-      <c r="B9" s="591"/>
+      <c r="A9" s="589"/>
+      <c r="B9" s="590"/>
       <c r="C9" s="271" t="s">
         <v>196</v>
       </c>
@@ -37243,10 +37275,10 @@
         <f>J12+H12</f>
         <v>1424822.4000000001</v>
       </c>
-      <c r="L12" s="580" t="s">
+      <c r="L12" s="566" t="s">
         <v>256</v>
       </c>
-      <c r="M12" s="580" t="s">
+      <c r="M12" s="566" t="s">
         <v>252</v>
       </c>
       <c r="N12" s="7">
@@ -37305,8 +37337,8 @@
         <f t="shared" ref="K13:K31" si="2">J13+H13</f>
         <v>147052.79999999999</v>
       </c>
-      <c r="L13" s="580"/>
-      <c r="M13" s="580"/>
+      <c r="L13" s="566"/>
+      <c r="M13" s="566"/>
       <c r="N13" s="495">
         <v>3296</v>
       </c>
@@ -37363,8 +37395,8 @@
         <f t="shared" si="2"/>
         <v>254527.19999999998</v>
       </c>
-      <c r="L14" s="580"/>
-      <c r="M14" s="580"/>
+      <c r="L14" s="566"/>
+      <c r="M14" s="566"/>
       <c r="N14" s="495">
         <v>3811</v>
       </c>
@@ -37421,8 +37453,8 @@
         <f t="shared" si="2"/>
         <v>296719.32</v>
       </c>
-      <c r="L15" s="580"/>
-      <c r="M15" s="580"/>
+      <c r="L15" s="566"/>
+      <c r="M15" s="566"/>
       <c r="N15" s="495">
         <v>4475.3500000000004</v>
       </c>
@@ -37479,8 +37511,8 @@
         <f t="shared" si="2"/>
         <v>701109</v>
       </c>
-      <c r="L16" s="580"/>
-      <c r="M16" s="580"/>
+      <c r="L16" s="566"/>
+      <c r="M16" s="566"/>
       <c r="N16" s="495">
         <v>7467.5</v>
       </c>
@@ -37537,8 +37569,8 @@
         <f t="shared" si="2"/>
         <v>274758</v>
       </c>
-      <c r="L17" s="580"/>
-      <c r="M17" s="580"/>
+      <c r="L17" s="566"/>
+      <c r="M17" s="566"/>
       <c r="N17" s="495">
         <v>8755</v>
       </c>
@@ -37595,8 +37627,8 @@
         <f t="shared" si="2"/>
         <v>122774</v>
       </c>
-      <c r="L18" s="581"/>
-      <c r="M18" s="581"/>
+      <c r="L18" s="567"/>
+      <c r="M18" s="567"/>
       <c r="N18" s="495">
         <v>11845</v>
       </c>
@@ -38410,11 +38442,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -38423,6 +38450,11 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>
@@ -38454,12 +38486,12 @@
   </cols>
   <sheetData>
     <row r="14" spans="6:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="592" t="s">
+      <c r="F14" s="597" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="592"/>
-      <c r="H14" s="592"/>
-      <c r="I14" s="592"/>
+      <c r="G14" s="597"/>
+      <c r="H14" s="597"/>
+      <c r="I14" s="597"/>
     </row>
     <row r="15" spans="6:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="533" t="s">
@@ -38572,7 +38604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F70DCA9-8910-4794-B913-A6C70BEAAFD6}">
   <dimension ref="A4:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -38585,313 +38617,313 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="596" t="s">
+      <c r="A4" s="538" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="596" t="s">
+      <c r="B4" s="538" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="597" t="s">
+      <c r="C4" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="597" t="s">
+      <c r="D4" s="539" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="593"/>
-      <c r="B5" s="593"/>
-      <c r="C5" s="594"/>
-      <c r="D5" s="594"/>
+      <c r="A5" s="535"/>
+      <c r="B5" s="535"/>
+      <c r="C5" s="536"/>
+      <c r="D5" s="536"/>
     </row>
     <row r="6" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="593" t="s">
+      <c r="A6" s="535" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="593" t="s">
+      <c r="B6" s="535" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="594">
+      <c r="C6" s="536">
         <f>'ACMV BOQ'!H12+'ACMV BOQ'!H13</f>
         <v>1076400</v>
       </c>
-      <c r="D6" s="594">
+      <c r="D6" s="536">
         <v>988800</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="593" t="s">
+      <c r="A7" s="535" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="535" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="594">
+      <c r="C7" s="536">
         <v>1076400</v>
       </c>
-      <c r="D7" s="594">
+      <c r="D7" s="536">
         <v>980000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="593" t="s">
+      <c r="A8" s="535" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="593" t="s">
+      <c r="B8" s="535" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="594">
+      <c r="C8" s="536">
         <f>'ACMV BOQ'!H15+'ACMV BOQ'!H16</f>
         <v>4023965</v>
       </c>
-      <c r="D8" s="594">
+      <c r="D8" s="536">
         <f>1485000+1378300</f>
         <v>2863300</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="593" t="s">
+      <c r="A9" s="535" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="593" t="s">
+      <c r="B9" s="535" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="594">
+      <c r="C9" s="536">
         <f>SUM('ACMV BOQ'!H19:H28)</f>
         <v>7609735.8399999999</v>
       </c>
-      <c r="D9" s="594">
+      <c r="D9" s="536">
         <v>6039974</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="593" t="s">
+      <c r="A10" s="535" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="593" t="s">
+      <c r="B10" s="535" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="594"/>
-      <c r="D10" s="594">
+      <c r="C10" s="536"/>
+      <c r="D10" s="536">
         <v>60000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="593" t="s">
+      <c r="A11" s="535" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="593" t="s">
+      <c r="B11" s="535" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="594">
+      <c r="C11" s="536">
         <f>SUM('ACMV BOQ'!H32:H67)</f>
         <v>1246922</v>
       </c>
-      <c r="D11" s="594">
+      <c r="D11" s="536">
         <v>503440</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="593" t="s">
+      <c r="A12" s="535" t="s">
         <v>299</v>
       </c>
-      <c r="B12" s="593"/>
-      <c r="C12" s="594">
+      <c r="B12" s="535"/>
+      <c r="C12" s="536">
         <f>SUM('ACMV BOQ'!H71:H74)</f>
         <v>579220.5</v>
       </c>
-      <c r="D12" s="594"/>
+      <c r="D12" s="536"/>
     </row>
     <row r="13" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="593" t="s">
+      <c r="A13" s="535" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="535" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="594">
+      <c r="C13" s="536">
         <f>SUM('ACMV BOQ'!H81:H93)+'ACMV BOQ'!H98+'ACMV BOQ'!H99+'ACMV BOQ'!H100+'ACMV BOQ'!H102+'ACMV BOQ'!H103+'ACMV BOQ'!H105+'ACMV BOQ'!H106+'ACMV BOQ'!H108</f>
         <v>1674768</v>
       </c>
-      <c r="D13" s="594">
+      <c r="D13" s="536">
         <v>1187810</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="593"/>
-      <c r="B14" s="593"/>
-      <c r="C14" s="594"/>
-      <c r="D14" s="594"/>
+      <c r="A14" s="535"/>
+      <c r="B14" s="535"/>
+      <c r="C14" s="536"/>
+      <c r="D14" s="536"/>
     </row>
     <row r="15" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="593" t="s">
+      <c r="A15" s="535" t="s">
         <v>308</v>
       </c>
-      <c r="B15" s="593" t="s">
+      <c r="B15" s="535" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="594">
+      <c r="C15" s="536">
         <f>SUM('Fire BOQ'!H12:H18)</f>
         <v>2707482.72</v>
       </c>
-      <c r="D15" s="594">
+      <c r="D15" s="536">
         <v>400350</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="593" t="s">
+      <c r="A16" s="535" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="593" t="s">
+      <c r="B16" s="535" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="594">
+      <c r="C16" s="536">
         <f>'Fire BOQ'!H20+'Fire BOQ'!H21+'Fire BOQ'!H22</f>
         <v>683100</v>
       </c>
-      <c r="D16" s="594">
+      <c r="D16" s="536">
         <f>239803+119902+136793</f>
         <v>496498</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="593" t="s">
+      <c r="A17" s="535" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="593" t="s">
+      <c r="B17" s="535" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="594">
+      <c r="C17" s="536">
         <f>'Fire BOQ'!H24+'Fire BOQ'!H25</f>
         <v>289800</v>
       </c>
-      <c r="D17" s="594">
+      <c r="D17" s="536">
         <f>184464+76091</f>
         <v>260555</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="593"/>
-      <c r="B18" s="593"/>
-      <c r="C18" s="594"/>
-      <c r="D18" s="594"/>
+      <c r="A18" s="535"/>
+      <c r="B18" s="535"/>
+      <c r="C18" s="536"/>
+      <c r="D18" s="536"/>
     </row>
     <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="593" t="s">
+      <c r="A19" s="535" t="s">
         <v>314</v>
       </c>
-      <c r="B19" s="593" t="s">
+      <c r="B19" s="535" t="s">
         <v>264</v>
       </c>
-      <c r="C19" s="594">
+      <c r="C19" s="536">
         <f>SUM('Plumbing BOQ'!H12:H35)</f>
         <v>3789480</v>
       </c>
-      <c r="D19" s="594">
+      <c r="D19" s="536">
         <v>3481400</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="593"/>
-      <c r="B20" s="593"/>
-      <c r="C20" s="594"/>
-      <c r="D20" s="594"/>
+      <c r="A20" s="535"/>
+      <c r="B20" s="535"/>
+      <c r="C20" s="536"/>
+      <c r="D20" s="536"/>
     </row>
     <row r="21" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="593"/>
-      <c r="B21" s="593"/>
-      <c r="C21" s="594"/>
-      <c r="D21" s="594"/>
+      <c r="A21" s="535"/>
+      <c r="B21" s="535"/>
+      <c r="C21" s="536"/>
+      <c r="D21" s="536"/>
     </row>
     <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="593"/>
-      <c r="B22" s="593"/>
-      <c r="C22" s="594"/>
-      <c r="D22" s="594"/>
+      <c r="A22" s="535"/>
+      <c r="B22" s="535"/>
+      <c r="C22" s="536"/>
+      <c r="D22" s="536"/>
     </row>
     <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="593"/>
-      <c r="B23" s="593"/>
-      <c r="C23" s="594"/>
-      <c r="D23" s="594"/>
+      <c r="A23" s="535"/>
+      <c r="B23" s="535"/>
+      <c r="C23" s="536"/>
+      <c r="D23" s="536"/>
     </row>
     <row r="24" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="593"/>
-      <c r="B24" s="593"/>
-      <c r="C24" s="594"/>
-      <c r="D24" s="594"/>
+      <c r="A24" s="535"/>
+      <c r="B24" s="535"/>
+      <c r="C24" s="536"/>
+      <c r="D24" s="536"/>
     </row>
     <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="593"/>
-      <c r="B25" s="593"/>
-      <c r="C25" s="594"/>
-      <c r="D25" s="594"/>
+      <c r="A25" s="535"/>
+      <c r="B25" s="535"/>
+      <c r="C25" s="536"/>
+      <c r="D25" s="536"/>
     </row>
     <row r="26" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="593"/>
-      <c r="B26" s="593"/>
-      <c r="C26" s="594"/>
-      <c r="D26" s="594"/>
+      <c r="A26" s="535"/>
+      <c r="B26" s="535"/>
+      <c r="C26" s="536"/>
+      <c r="D26" s="536"/>
     </row>
     <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="593"/>
-      <c r="B27" s="593"/>
-      <c r="C27" s="594"/>
-      <c r="D27" s="594"/>
+      <c r="A27" s="535"/>
+      <c r="B27" s="535"/>
+      <c r="C27" s="536"/>
+      <c r="D27" s="536"/>
     </row>
     <row r="28" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="593"/>
-      <c r="B28" s="593"/>
-      <c r="C28" s="594"/>
-      <c r="D28" s="594"/>
+      <c r="A28" s="535"/>
+      <c r="B28" s="535"/>
+      <c r="C28" s="536"/>
+      <c r="D28" s="536"/>
     </row>
     <row r="29" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="593"/>
-      <c r="B29" s="593"/>
-      <c r="C29" s="594"/>
-      <c r="D29" s="594"/>
+      <c r="A29" s="535"/>
+      <c r="B29" s="535"/>
+      <c r="C29" s="536"/>
+      <c r="D29" s="536"/>
     </row>
     <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="593"/>
-      <c r="B30" s="593"/>
-      <c r="C30" s="594"/>
-      <c r="D30" s="594"/>
+      <c r="A30" s="535"/>
+      <c r="B30" s="535"/>
+      <c r="C30" s="536"/>
+      <c r="D30" s="536"/>
     </row>
     <row r="31" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="593"/>
-      <c r="B31" s="593"/>
-      <c r="C31" s="594"/>
-      <c r="D31" s="594"/>
+      <c r="A31" s="535"/>
+      <c r="B31" s="535"/>
+      <c r="C31" s="536"/>
+      <c r="D31" s="536"/>
     </row>
     <row r="32" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="593"/>
-      <c r="B32" s="593"/>
-      <c r="C32" s="594"/>
-      <c r="D32" s="594"/>
+      <c r="A32" s="535"/>
+      <c r="B32" s="535"/>
+      <c r="C32" s="536"/>
+      <c r="D32" s="536"/>
     </row>
     <row r="33" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="593"/>
-      <c r="B33" s="593"/>
-      <c r="C33" s="594"/>
-      <c r="D33" s="594"/>
+      <c r="A33" s="535"/>
+      <c r="B33" s="535"/>
+      <c r="C33" s="536"/>
+      <c r="D33" s="536"/>
     </row>
     <row r="34" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="593"/>
-      <c r="B34" s="593"/>
-      <c r="C34" s="594"/>
-      <c r="D34" s="594"/>
+      <c r="A34" s="535"/>
+      <c r="B34" s="535"/>
+      <c r="C34" s="536"/>
+      <c r="D34" s="536"/>
     </row>
     <row r="35" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="593"/>
-      <c r="B35" s="593"/>
-      <c r="C35" s="594"/>
-      <c r="D35" s="594"/>
+      <c r="A35" s="535"/>
+      <c r="B35" s="535"/>
+      <c r="C35" s="536"/>
+      <c r="D35" s="536"/>
     </row>
     <row r="36" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="595"/>
-      <c r="B36" s="595"/>
-      <c r="C36" s="595"/>
-      <c r="D36" s="595"/>
+      <c r="A36" s="537"/>
+      <c r="B36" s="537"/>
+      <c r="C36" s="537"/>
+      <c r="D36" s="537"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38911,6 +38943,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368BEF076A962A43B6F9D3AD7FB3FB6F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcb0f6516c6be7fd66a54e395076b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db23c72c-e112-43fc-8a02-148203d9c31c" xmlns:ns3="2a2a445e-c453-4f04-9b2f-8a0068eac90e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4bdf9d59a7f4f0d91d44646cabeafbf" ns2:_="" ns3:_="">
     <xsd:import namespace="db23c72c-e112-43fc-8a02-148203d9c31c"/>
@@ -39171,15 +39212,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470DC44F-48EF-4FA6-AAA1-E1489F55FD13}">
   <ds:schemaRefs>
@@ -39198,6 +39230,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1D120-88D7-40A1-B049-705DFBF44AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39214,12 +39254,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>